--- a/results/I1_R1_mean_res.xlsx
+++ b/results/I1_R1_mean_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6871.213999999985</v>
+        <v>11808.49526041595</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>43200.4509999752</v>
+        <v>600.0899999141693</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.8774003170863844</v>
+        <v>0.950905128049631</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>16182.475</v>
+        <v>11064.49750424563</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>15495.868</v>
+        <v>0.002679924277043008</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>686.607</v>
+        <v>0.0004360945972567849</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3569.999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1928</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -563,17 +563,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9999994416327852</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -616,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -627,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -638,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -649,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9999999981621526</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -660,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -671,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.9999994420984661</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -682,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -693,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9999988829797207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -704,10 +693,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9999999981231769</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -715,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.9999999980899084</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -726,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.9999994415832463</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -737,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -772,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -783,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -794,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -827,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -849,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -860,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -871,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -882,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -944,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>693.5723079999998</v>
+        <v>1363.859914144588</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -952,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>880.6376639999992</v>
+        <v>1287.615794457265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -960,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1200</v>
+        <v>1200.000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -968,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1262.19858</v>
+        <v>1287.401361880577</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -976,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1135.299594</v>
+        <v>959.9999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -984,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>945.2729459999994</v>
+        <v>1277.367908</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -992,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1071.818898</v>
+        <v>959.9999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1000,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>753.8054379999992</v>
+        <v>1211.393212290802</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1008,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1010.205287999999</v>
+        <v>1362.70292</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1016,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>817.036609999999</v>
+        <v>1211.399695880577</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1024,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>960</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1050,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1068,132 +1057,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>22.80000000000001</v>
+        <v>478.9999812865773</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1250,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>244.1999999999979</v>
+        <v>377.199999668384</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1261,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>705.3999999999967</v>
+        <v>110.1999384405366</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1272,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>813.999999999997</v>
+        <v>327.7999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1283,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>622.1999999999971</v>
+        <v>86.99999999999928</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1294,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>305.7999999999986</v>
+        <v>210.3999384405337</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1305,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>535.1999999999979</v>
+        <v>119.7999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1316,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>111.9999999999982</v>
+        <v>267.8000187707291</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1327,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>415.399999999999</v>
+        <v>460.6003740150934</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1338,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>174.1999999999971</v>
+        <v>219.1999999999992</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1349,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>478.9999812865784</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1360,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>210.3938716492377</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1371,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>813.999999999997</v>
+        <v>460.6000899497341</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>713.999999999997</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1474,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>39.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1485,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1518,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>38.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1540,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>58.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1551,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>23.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1562,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1589,105 +1452,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
